--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -637,27 +637,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/artfynd/A 29860-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/artfynd/A 29860-2022.xlsx", "A 29860-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/kartor/A 29860-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/kartor/A 29860-2022.png", "A 29860-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomål/A 29860-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomål/A 29860-2022.docx", "A 29860-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomålsmail/A 29860-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomålsmail/A 29860-2022.docx", "A 29860-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsyn/A 29860-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsyn/A 29860-2022.docx", "A 29860-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsynsmail/A 29860-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsynsmail/A 29860-2022.docx", "A 29860-2022")</f>
         <v/>
       </c>
     </row>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -733,27 +733,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/artfynd/A 32389-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/artfynd/A 32389-2023.xlsx", "A 32389-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/kartor/A 32389-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/kartor/A 32389-2023.png", "A 32389-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomål/A 32389-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomål/A 32389-2023.docx", "A 32389-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomålsmail/A 32389-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomålsmail/A 32389-2023.docx", "A 32389-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsyn/A 32389-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsyn/A 32389-2023.docx", "A 32389-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsynsmail/A 32389-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsynsmail/A 32389-2023.docx", "A 32389-2023")</f>
         <v/>
       </c>
     </row>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -826,27 +826,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/artfynd/A 56519-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/artfynd/A 56519-2019.xlsx", "A 56519-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/kartor/A 56519-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/kartor/A 56519-2019.png", "A 56519-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomål/A 56519-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomål/A 56519-2019.docx", "A 56519-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomålsmail/A 56519-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomålsmail/A 56519-2019.docx", "A 56519-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsyn/A 56519-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsyn/A 56519-2019.docx", "A 56519-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsynsmail/A 56519-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsynsmail/A 56519-2019.docx", "A 56519-2019")</f>
         <v/>
       </c>
     </row>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,27 +917,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/artfynd/A 28124-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/artfynd/A 28124-2021.xlsx", "A 28124-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/kartor/A 28124-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/kartor/A 28124-2021.png", "A 28124-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomål/A 28124-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomål/A 28124-2021.docx", "A 28124-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomålsmail/A 28124-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomålsmail/A 28124-2021.docx", "A 28124-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsyn/A 28124-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsyn/A 28124-2021.docx", "A 28124-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsynsmail/A 28124-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsynsmail/A 28124-2021.docx", "A 28124-2021")</f>
         <v/>
       </c>
     </row>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,27 +1007,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/artfynd/A 3218-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/artfynd/A 3218-2019.xlsx", "A 3218-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/kartor/A 3218-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/kartor/A 3218-2019.png", "A 3218-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomål/A 3218-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomål/A 3218-2019.docx", "A 3218-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomålsmail/A 3218-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomålsmail/A 3218-2019.docx", "A 3218-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsyn/A 3218-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsyn/A 3218-2019.docx", "A 3218-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsynsmail/A 3218-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsynsmail/A 3218-2019.docx", "A 3218-2019")</f>
         <v/>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,27 +1092,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/artfynd/A 11722-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/artfynd/A 11722-2020.xlsx", "A 11722-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/kartor/A 11722-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/kartor/A 11722-2020.png", "A 11722-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomål/A 11722-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomål/A 11722-2020.docx", "A 11722-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomålsmail/A 11722-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomålsmail/A 11722-2020.docx", "A 11722-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsyn/A 11722-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsyn/A 11722-2020.docx", "A 11722-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsynsmail/A 11722-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsynsmail/A 11722-2020.docx", "A 11722-2020")</f>
         <v/>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,27 +1182,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/artfynd/A 17496-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/artfynd/A 17496-2020.xlsx", "A 17496-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/kartor/A 17496-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/kartor/A 17496-2020.png", "A 17496-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomål/A 17496-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomål/A 17496-2020.docx", "A 17496-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomålsmail/A 17496-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomålsmail/A 17496-2020.docx", "A 17496-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsyn/A 17496-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsyn/A 17496-2020.docx", "A 17496-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsynsmail/A 17496-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsynsmail/A 17496-2020.docx", "A 17496-2020")</f>
         <v/>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,27 +1272,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/artfynd/A 23466-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/artfynd/A 23466-2022.xlsx", "A 23466-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/kartor/A 23466-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/kartor/A 23466-2022.png", "A 23466-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomål/A 23466-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomål/A 23466-2022.docx", "A 23466-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomålsmail/A 23466-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/klagomålsmail/A 23466-2022.docx", "A 23466-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsyn/A 23466-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsyn/A 23466-2022.docx", "A 23466-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsynsmail/A 23466-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOMELILLA/tillsynsmail/A 23466-2022.docx", "A 23466-2022")</f>
         <v/>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="R78" s="2" t="inlineStr"/>
     </row>
-    <row r="79">
+    <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
           <t>A 31993-2023</t>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5440,6 +5440,63 @@
         <v>0</v>
       </c>
       <c r="R79" s="2" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>A 47231-2023</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>45202</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>45202</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -572,7 +572,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43763</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>43480</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43923</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>43343</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43479</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43507</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43609</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43614</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43630</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43633</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43686</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43717</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43929</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43949</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43969</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43978</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44008</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44011</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44011</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44116</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44133</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44172</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44175</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44208</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44250</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44284</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44306</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44344</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44355</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44613</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44658</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44665</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44749</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44876</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44986</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44991</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45009</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45009</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>45020</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>45020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>45104</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45112</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>45202</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
